--- a/res/gz.xlsx
+++ b/res/gz.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="月薪" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>月份</t>
   </si>
@@ -203,10 +203,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>月薪测试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>肖兰平</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -216,6 +212,22 @@
   </si>
   <si>
     <t>计时测试</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>其 它2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>其 它1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>李柯</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -782,13 +794,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEU3"/>
+  <dimension ref="A1:XEF2"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="43.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -813,11 +825,11 @@
     <col min="22" max="22" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="25" max="16375" width="9" style="21"/>
-    <col min="16376" max="16384" width="9" style="20"/>
+    <col min="25" max="16360" width="9" style="21"/>
+    <col min="16361" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16375" s="19" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16360" s="19" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -890,9 +902,15 @@
       <c r="X1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
+      <c r="Y1" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="AB1" s="34"/>
       <c r="AC1" s="34"/>
       <c r="AD1" s="34"/>
@@ -17226,23 +17244,8 @@
       <c r="XED1" s="34"/>
       <c r="XEE1" s="34"/>
       <c r="XEF1" s="34"/>
-      <c r="XEG1" s="34"/>
-      <c r="XEH1" s="34"/>
-      <c r="XEI1" s="34"/>
-      <c r="XEJ1" s="34"/>
-      <c r="XEK1" s="34"/>
-      <c r="XEL1" s="34"/>
-      <c r="XEM1" s="34"/>
-      <c r="XEN1" s="34"/>
-      <c r="XEO1" s="34"/>
-      <c r="XEP1" s="34"/>
-      <c r="XEQ1" s="34"/>
-      <c r="XER1" s="34"/>
-      <c r="XES1" s="34"/>
-      <c r="XET1" s="34"/>
-      <c r="XEU1" s="34"/>
     </row>
-    <row r="2" spans="1:16375" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16360" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -17250,7 +17253,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>27</v>
@@ -17315,79 +17318,11 @@
       <c r="X2" s="33">
         <v>2666.12345</v>
       </c>
-    </row>
-    <row r="3" spans="1:16375" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="27">
-        <v>22</v>
-      </c>
-      <c r="F3" s="27">
-        <v>8</v>
-      </c>
-      <c r="G3" s="28">
-        <v>22</v>
-      </c>
-      <c r="H3" s="28">
-        <v>888</v>
-      </c>
-      <c r="I3" s="27">
-        <v>100</v>
-      </c>
-      <c r="J3" s="27">
-        <v>100</v>
-      </c>
-      <c r="K3" s="27">
-        <v>100</v>
-      </c>
-      <c r="L3" s="28">
+      <c r="Y2" s="21">
         <v>0</v>
       </c>
-      <c r="M3" s="28">
+      <c r="Z2" s="21">
         <v>0</v>
-      </c>
-      <c r="N3" s="28">
-        <v>0</v>
-      </c>
-      <c r="O3" s="28">
-        <v>0</v>
-      </c>
-      <c r="P3" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="28">
-        <v>0</v>
-      </c>
-      <c r="R3" s="28">
-        <v>0</v>
-      </c>
-      <c r="S3" s="28">
-        <v>0</v>
-      </c>
-      <c r="T3" s="28">
-        <v>0</v>
-      </c>
-      <c r="U3" s="28">
-        <v>0</v>
-      </c>
-      <c r="V3" s="31">
-        <v>0</v>
-      </c>
-      <c r="W3" s="27">
-        <v>2000</v>
-      </c>
-      <c r="X3" s="33">
-        <v>2666.12345</v>
       </c>
     </row>
   </sheetData>
@@ -17401,11 +17336,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="58.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17532,10 +17467,10 @@
         <v>48</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="11">
         <v>22</v>
@@ -17624,10 +17559,10 @@
         <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="11">
         <v>22</v>
